--- a/test_data/test_image.xlsx
+++ b/test_data/test_image.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="test_imageFile" sheetId="1" r:id="rId1"/>
-    <sheet name="test_addImage" sheetId="2" r:id="rId2"/>
-    <sheet name="test_imagelist" sheetId="3" r:id="rId3"/>
-    <sheet name="test_get_image" sheetId="4" r:id="rId4"/>
-    <sheet name="test_edit_image" sheetId="5" r:id="rId5"/>
-    <sheet name="test_delete_image" sheetId="6" r:id="rId6"/>
-    <sheet name="test_multi_delete_image" sheetId="7" r:id="rId7"/>
+    <sheet name="初始条件" sheetId="8" r:id="rId1"/>
+    <sheet name="test_image_file" sheetId="1" r:id="rId2"/>
+    <sheet name="test_add_image" sheetId="2" r:id="rId3"/>
+    <sheet name="test_imagelist" sheetId="3" r:id="rId4"/>
+    <sheet name="test_get_image" sheetId="4" r:id="rId5"/>
+    <sheet name="test_edit_image" sheetId="5" r:id="rId6"/>
+    <sheet name="test_delete_image" sheetId="6" r:id="rId7"/>
+    <sheet name="test_multi_delete_image" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>resourcePoolId</t>
   </si>
@@ -33,17 +34,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS6.5.qcow2</t>
-  </si>
-  <si>
     <t>115</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS6.5.qcow2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resourcePollId</t>
   </si>
   <si>
@@ -67,12 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Redhat</t>
-  </si>
-  <si>
-    <t>rhel6.5</t>
-  </si>
-  <si>
     <t>resourcePoolId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,6 +126,38 @@
   </si>
   <si>
     <t>newtest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redhat6.4.qcow2</t>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_pool_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhel6.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironic的/httpboot下有redhat6.4.qcow2文件
+镜像列表没有叫test、test1、test2、newtest的镜像</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -188,17 +208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,20 +518,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -523,14 +564,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -558,73 +599,73 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -648,18 +689,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -683,15 +724,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -716,42 +757,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -775,18 +816,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -795,11 +836,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -807,24 +848,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
